--- a/started.xlsx
+++ b/started.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,14 +365,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1025888307</v>
-      </c>
-    </row>
     <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
@@ -395,6 +387,30 @@
       </c>
       <c r="B6">
         <v>1755920321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>112525683</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>966843204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1025888307</v>
       </c>
     </row>
   </sheetData>
